--- a/Sheets/LostSheet.xlsx
+++ b/Sheets/LostSheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,9 +24,6 @@
     <t>АНО ВО «Университет Иннополис»</t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
     <t>Вид</t>
   </si>
   <si>
@@ -57,13 +54,19 @@
     <t>Комментарий:</t>
   </si>
   <si>
-    <t xml:space="preserve">Накладная на утерю оборудования </t>
+    <t>Накладная на утерю оборудования</t>
+  </si>
+  <si>
+    <t>Наименование оборудования</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -88,7 +91,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -236,11 +239,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -270,7 +303,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -290,6 +322,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -573,7 +627,7 @@
   <dimension ref="A2:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C14" sqref="C14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,7 +651,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -611,302 +665,317 @@
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="29"/>
+      <c r="F10" s="30"/>
+    </row>
+    <row r="11" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="31"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
-      <c r="F17" s="17"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="17"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
-      <c r="F19" s="17"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
-      <c r="F20" s="17"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
-      <c r="F21" s="17"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="17"/>
+      <c r="F22" s="16"/>
       <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
-      <c r="F23" s="17"/>
+      <c r="F23" s="16"/>
       <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
-      <c r="F24" s="17"/>
+      <c r="F24" s="16"/>
       <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
-      <c r="F25" s="17"/>
+      <c r="F25" s="16"/>
       <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
-      <c r="F26" s="17"/>
+      <c r="F26" s="16"/>
       <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
-      <c r="F27" s="17"/>
+      <c r="F27" s="16"/>
       <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
-      <c r="F28" s="17"/>
+      <c r="F28" s="16"/>
       <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
-      <c r="F29" s="17"/>
+      <c r="F29" s="16"/>
       <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
-      <c r="F30" s="17"/>
+      <c r="F30" s="16"/>
       <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
-      <c r="F31" s="20"/>
+      <c r="F31" s="19"/>
       <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="20"/>
+      <c r="F32" s="19"/>
       <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
-      <c r="F33" s="22"/>
+      <c r="F33" s="21"/>
       <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
-      <c r="F34" s="17"/>
+      <c r="F34" s="16"/>
       <c r="G34" s="12"/>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
+      <c r="A35" s="17"/>
       <c r="B35" s="11"/>
       <c r="C35" s="9"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
-      <c r="F35" s="17"/>
+      <c r="F35" s="16"/>
       <c r="G35" s="12"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
+      <c r="A36" s="15"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
-      <c r="F36" s="17"/>
+      <c r="F36" s="16"/>
       <c r="G36" s="12"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
+      <c r="A37" s="17"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
-      <c r="F37" s="17"/>
+      <c r="F37" s="16"/>
       <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
+      <c r="A38" s="15"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
-      <c r="F38" s="17"/>
+      <c r="F38" s="16"/>
       <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
-      <c r="F39" s="17"/>
+      <c r="F39" s="16"/>
       <c r="G39" s="11"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
+      <c r="A40" s="15"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
-      <c r="F40" s="17"/>
+      <c r="F40" s="16"/>
       <c r="G40" s="11"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
+      <c r="A41" s="17"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
-      <c r="F41" s="17"/>
+      <c r="F41" s="16"/>
       <c r="G41" s="11"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
+      <c r="A42" s="17"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
-      <c r="F42" s="17"/>
+      <c r="F42" s="16"/>
       <c r="G42" s="11"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="23"/>
+      <c r="A43" s="22"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="24"/>
+      <c r="F43" s="23"/>
       <c r="G43" s="11"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -917,13 +986,23 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
         <v>8</v>
       </c>
-      <c r="D46" t="s">
-        <v>9</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:F11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
